--- a/multi/repo/data11.xlsx
+++ b/multi/repo/data11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patil_sag\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB56C4D-6B61-4410-805F-257986AA9FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132DFA04-7F97-456F-A2A1-3C444E0A44F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C16050F6-39A3-41B5-B730-17A1645F3E0D}"/>
   </bookViews>
@@ -241,32 +241,35 @@
     <t>rl1034</t>
   </si>
   <si>
-    <t>filter by 1041.The types of selections Streamlit should allow. This can be one of the following:
-"multi-row" : Multiple rows can be selected at a time.
-"single-row": Only one row can be selected at a time.
-"multi-column": columns can be selected at a time.
-"single-column": Only one column can be at a time.st.dataframe(data=None, width=None, height=None, *, use_container_width=False, hide_index=None, =None, column_config=None, key=None, on_select="ignore", selection_mode="multi-row")st.dataframe(data=None, width=None, height=None, *, use_container_width=False, hide_index=None, column_order=None, column_config=None, key=None, on_select="ignore", selection_mode="multi")Text. Generative Pre-Trained Transformers (GPT) can generate LLM responses in the form of document text, computer code, answers to questions, conversational text, and so on by accepting user-provided inputs (prompts). OpenAI provides different flavors of GPT, particularly GPT3, GPT3.5 (the engine driving ChatGPT), and GPT4.
-Image. The DALL·E model can generate, manipulate, or create variations of images as guided by input prompts.
-Embeddings. Text  provide a numerical representation of text that can be used for semantic search, clustering, recommendations, classification, anomaly detection, and so on. OpenAI's text-embedding-ada-002 provides this capability.
-Speech to text. The Whisper model enables the transcription and translation of user-provided audio files through its API .
-Fine-tuning. OpenAI models can be fine-tuned for better results by supplying a foundational model with a compilation of training instances, effectively offering a larger volume of examples than what can be achieved by few-shot learning (i.e., prompts with a few training )In the previous step, you generated an OpenAI API key. Instead of hardcoding the API key each time, code an LLM tool and save the API key to memory. To do this, save the API key as an environment variable—the memory of your operating system that you can access from the command line or from your Python code.
-Depending on your operating system, you can set the environmental variable with varying commands. This article by Michael Schade shows how to do this on various operating systems, such as Windows, Linux, and Mac OSX.In the previous step, you generated an OpenAI API key. Instead of hardcoding the API key each time, code an LLM tool and save the API key to memory. To do this, save the API key as an environment variable—the memory of your operating system that you can access from the command line or from your Python code.
-Depending on your operating system, you can set the environmental variable with varying commands. This article by Michael Schade shows how to do this on various operating systems, such as Windows, Linux, and Mac OSX.In the previous step, you generated an OpenAI API key. Instead of hardcoding the API key each time, code an LLM tool and save the API key to memory. To do this, save the API key as an environment variable—the memory of your operating system that you can access from the command line or from your Python code.
-Depending on your operating system, you can set the environmental variable with varying commands. This article by Michael Schade shows how to do this on various operating systems, such as Windows, Linux, and Mac OSX.</t>
-  </si>
-  <si>
-    <t>filter by 1025.The types of selections Streamlit should allow. This can be one of the following:
-"multi-row" (default): Multiple rows can be selected at a time.
-"single-row": Only one row can be selected at a time.
-"multi-column": Multiple columns can be selected at a time.
-"single-column": Only one column can be selected at a time.st.dataframe(data=None, width=None, height=None, *, use_container_width=False, hide_index=None, column_order=None, column_config=None, key=None, on_select="ignore", selection_mode="multi-row")st.dataframe(data=None, width=None, height=None, *, use_container_width=False, hide_index=None, column_order=None, column_config=None, key=None, on_select="ignore", selection_mode="multi-row")Text. Generative Pre-Trained Transformers (GPT) can generate LLM responses in the form of document text, computer code, answers to questions, conversational text, and so on by accepting user-provided inputs (prompts). OpenAI provides different flavors of GPT, particularly GPT3, GPT3.5 (the engine driving ChatGPT), and GPT4.
-Image. The DALL·E model can generate, manipulate, or create variations of images as guided by input prompts.
-Embeddings. Text embeddings provide a numerical representation of text that can be used for semantic search, clustering, recommendations, classification, anomaly detection, and so on. OpenAI's text-embedding-ada-002 provides this capability.
-Speech to text. The Whisper model enables the transcription and translation of user-provided audio files through its API endpoints.
-Fine-tuning. OpenAI models can be fine-tuned for better results by supplying a foundational model with a compilation of training instances, effectively offering a larger volume of examples than what can be achieved by few-shot learning (i.e., prompts with a few training examples)In the previous step, you generated an OpenAI API key. Instead of hardcoding the API key each time, code an LLM tool and save the API key to memory. To do this, save the API key as an environment variable—the memory of your operating system that you can access from the command line or from your Python code.
-Depending on your operating system, you can set the environmental variable with varying commands. This article by Michael Schade shows how to do this on various operating systems, such as Windows, and Mac OSX.In the previous step, you generated an OpenAI API key. Instead of hardcoding the API key each time, code an LLM tool and save the API key to memory. To do this, save the API key as an environment variable—the memory of your operating system that you can access from the command line or from your Python code.
-Depending on your operating system, you can set the environmental variable with varying . This article by Michael Schade shows how to do this on various operating systems, such as Windows, Linux, and Mac OSX.In the previous step, you generated an OpenAI API key. Instead of hardcoding the API key each time, code an LLM tool and save the API key to memory. To do this, save the API key as an environment variable—the memory of your operating system that you can access from the command line or from your Python code.
-Depending on your operating system, you can set the environmental variable with varying commands. This article by Michael Schade shows how to do this on various operating systems, such as Windows, Linux, and Mac</t>
+    <t>RL00003640_FILTER = SELECT('CASHANDDUE', FROM[], TO[],
+(
+//Common Criteria
+actg_unit_id EQ 1
+AND (fdl_pmf_acct STARTS_WITH 'BS0103'
+OR fdl_pmf_acct STARTS_WITH 'BS0105'
+OR fdl_pmf_acct STARTS_WITH 'BS0112'
+OR fdl_pmf_acct STARTS_WITH 'BS0114'
+OR fdl_pmf_acct STARTS_WITH 'BS0399')
+AND frs_affl_ice EQ '100000')
+AND
+((
+//Criteria 1
+(rate_rset_perd_int_cd NOT IN ('10001','10002','10003','10004','10005']
+OR rate_rset_perd_int_cd IS NULL))
+OR
+(
+//Criteria 2
+(band_rri_remn_days_to_mat STARTS_WITH 'B04'
+OR band_rri_remn_days_to_mat STARTS_WITH 'B05'
+OR band_rri_remn_days_to_mat STARTS_WITH 'B06'
+OR band_rri_remn_days_to_mat STARTS_WITH 'B07')))
+);
+RL00003640_FILTER['lvl_one_mtrc_orig_amt']=base_ccy_4pt_amt;
+RL00003640=GROUPBY(RL00003640_FILTER,
+FROM['frs_bu'],TO[],AGGR[SUM(lvl_one_mtrc_orig_amt)]);</t>
+  </si>
+  <si>
+    <t>For the RLA id RL00003640:Filter the data by FRS Account that begins with ('BS0103', 'BS0105', 'BS0112', 'BS0114', 'BS0399').Include only data with Affiliate ICE code 'I00000' for Third Parties.Include data where the Remaining Days to Maturity Band starts with 'B04', 'B05', 'B06', or 'B07' for a duration of one year or more. Additionally, exclude data where the Rate Variability Type Code is 'VAR_RATE', 'ADM_RATE', or NULL.3a. Alternatively, include data where the Rate Reset Periodicity Interval ID is not in ['10001', '10002', '10003', '10004', '10005'] or is NULL, for a repricing frequency of less than one year. Also, include data where the Rate Variability Type Code is 'VAR_RATE' or 'ADM_RATE'.Report the Ending Balance, using the 'Accounting Unit ID', where the Balance Type is determined from 'Principal Balance (1)'.</t>
   </si>
 </sst>
 </file>
@@ -1133,16 +1136,16 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="59" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="53.125" customWidth="1"/>
-    <col min="4" max="4" width="72.75" customWidth="1"/>
+    <col min="3" max="3" width="53.140625" customWidth="1"/>
+    <col min="4" max="4" width="72.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1159,7 +1162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1167,16 +1170,16 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="E2">
         <v>0.76</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1193,7 +1196,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1210,7 +1213,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1227,7 +1230,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1244,7 +1247,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1261,7 +1264,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1278,7 +1281,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1295,7 +1298,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1312,7 +1315,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1329,7 +1332,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1346,7 +1349,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1363,7 +1366,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1380,7 +1383,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -1397,7 +1400,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -1414,7 +1417,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1431,7 +1434,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -1448,7 +1451,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -1465,7 +1468,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -1482,7 +1485,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -1499,7 +1502,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -1516,7 +1519,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -1533,7 +1536,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -1550,7 +1553,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -1567,7 +1570,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -1584,7 +1587,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -1601,7 +1604,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -1618,7 +1621,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -1635,7 +1638,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -1652,7 +1655,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -1669,7 +1672,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -1686,7 +1689,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -1703,7 +1706,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -1720,7 +1723,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>72</v>
       </c>
